--- a/players.xlsx
+++ b/players.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -630,7 +630,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -880,7 +880,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>i</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>i</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -4374,7 +4374,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>s</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>n</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5642,7 +5642,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -6496,7 +6496,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>i</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -6530,7 +6530,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -7010,7 +7010,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>i</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -7112,7 +7112,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>i</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>i</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -7214,7 +7214,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7392,7 +7392,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>i</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F209" t="inlineStr"/>
@@ -7702,7 +7702,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -7740,7 +7740,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -7778,7 +7778,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>i</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -7994,7 +7994,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -8410,7 +8410,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -8580,7 +8580,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F235" t="inlineStr"/>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F237" t="inlineStr"/>
@@ -8682,7 +8682,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>i</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>i</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>i</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -9570,7 +9570,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -9608,7 +9608,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F265" t="inlineStr"/>
@@ -9642,7 +9642,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -9748,7 +9748,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
@@ -9986,7 +9986,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -10092,7 +10092,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F281" t="inlineStr"/>
@@ -10198,7 +10198,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -10508,7 +10508,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -10618,7 +10618,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -10656,7 +10656,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F297" t="inlineStr"/>
@@ -10762,7 +10762,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -10800,7 +10800,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -10838,7 +10838,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F300" t="inlineStr"/>
@@ -10940,7 +10940,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -10978,7 +10978,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -11122,7 +11122,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -11304,7 +11304,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F313" t="inlineStr"/>
@@ -11338,7 +11338,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F319" t="inlineStr"/>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F321" t="inlineStr"/>
@@ -11750,7 +11750,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F326" t="inlineStr"/>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F330" t="inlineStr"/>
@@ -11920,7 +11920,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F331" t="inlineStr"/>
@@ -12022,7 +12022,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F334" t="inlineStr"/>
@@ -12158,7 +12158,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>n</t>
         </is>
       </c>
       <c r="F338" t="inlineStr"/>
@@ -12192,7 +12192,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F339" t="inlineStr"/>
@@ -12294,7 +12294,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -12332,7 +12332,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -12370,7 +12370,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -12408,7 +12408,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -12548,7 +12548,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F349" t="inlineStr"/>
@@ -12582,7 +12582,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -12620,7 +12620,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -12692,7 +12692,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -12730,7 +12730,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -12768,7 +12768,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -12806,7 +12806,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -12946,7 +12946,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F360" t="inlineStr"/>
@@ -13150,7 +13150,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -13256,7 +13256,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -13332,7 +13332,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F371" t="inlineStr"/>
@@ -13366,7 +13366,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>i</t>
         </is>
       </c>
       <c r="F372" t="inlineStr"/>
@@ -13400,7 +13400,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -13578,7 +13578,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -13956,7 +13956,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>i</t>
         </is>
       </c>
       <c r="F389" t="inlineStr"/>
@@ -13990,7 +13990,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F390" t="inlineStr"/>
@@ -14024,7 +14024,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F391" t="inlineStr"/>
@@ -14058,7 +14058,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -14198,7 +14198,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -14236,7 +14236,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -14308,7 +14308,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
@@ -14448,7 +14448,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -14520,7 +14520,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F405" t="inlineStr"/>
@@ -14554,7 +14554,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -14592,7 +14592,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -14630,7 +14630,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -14668,7 +14668,7 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F409" t="inlineStr"/>
@@ -14906,7 +14906,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -14944,7 +14944,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -14982,7 +14982,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F418" t="inlineStr"/>
@@ -15084,7 +15084,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F421" t="inlineStr"/>
@@ -15152,7 +15152,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F423" t="inlineStr"/>
@@ -15220,7 +15220,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -15292,7 +15292,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F427" t="inlineStr"/>
@@ -15326,7 +15326,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -15432,7 +15432,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F432" t="inlineStr"/>
@@ -15504,7 +15504,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F433" t="inlineStr"/>
@@ -15538,7 +15538,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
@@ -15678,7 +15678,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F441" t="inlineStr"/>
@@ -15954,7 +15954,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F446" t="inlineStr"/>
@@ -16022,7 +16022,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -16060,7 +16060,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>i</t>
         </is>
       </c>
       <c r="F449" t="inlineStr"/>
@@ -16196,7 +16196,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
@@ -16366,7 +16366,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
@@ -16434,7 +16434,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
@@ -16604,7 +16604,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F465" t="inlineStr"/>
@@ -17012,7 +17012,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
@@ -17046,7 +17046,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
@@ -17080,7 +17080,7 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
@@ -17250,7 +17250,7 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
@@ -17318,7 +17318,7 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
@@ -17352,7 +17352,7 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
@@ -17386,7 +17386,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
@@ -17420,7 +17420,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F489" t="inlineStr"/>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>i</t>
         </is>
       </c>
       <c r="F493" t="inlineStr"/>
@@ -17624,7 +17624,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>i</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
@@ -17726,7 +17726,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
@@ -17798,7 +17798,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
@@ -17836,7 +17836,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -17874,7 +17874,7 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
@@ -17912,7 +17912,7 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
@@ -17984,7 +17984,7 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
@@ -18056,7 +18056,7 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
@@ -18094,7 +18094,7 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
@@ -18166,7 +18166,7 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
@@ -18238,7 +18238,7 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
@@ -18344,7 +18344,7 @@
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F515" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
@@ -18518,7 +18518,7 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
@@ -18556,7 +18556,7 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
@@ -18662,7 +18662,7 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
@@ -18768,7 +18768,7 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
@@ -19010,7 +19010,7 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
@@ -19222,7 +19222,7 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
@@ -19260,7 +19260,7 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
@@ -19298,7 +19298,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
@@ -19404,7 +19404,7 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
@@ -19578,7 +19578,7 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F550" t="inlineStr"/>
@@ -19816,7 +19816,7 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F557" t="inlineStr"/>
@@ -19884,7 +19884,7 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
@@ -20092,7 +20092,7 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
@@ -20266,7 +20266,7 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -20338,7 +20338,7 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>u</t>
         </is>
       </c>
       <c r="F572" t="inlineStr"/>
@@ -20474,7 +20474,7 @@
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F576" t="inlineStr"/>
@@ -20814,7 +20814,7 @@
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F586" t="inlineStr">
@@ -21226,7 +21226,7 @@
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F598" t="inlineStr">
@@ -21298,7 +21298,7 @@
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F600" t="inlineStr">
@@ -21370,7 +21370,7 @@
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F602" t="inlineStr"/>
@@ -21438,7 +21438,7 @@
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F604" t="inlineStr">
@@ -21816,7 +21816,7 @@
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>i</t>
         </is>
       </c>
       <c r="F615" t="inlineStr"/>
@@ -21884,7 +21884,7 @@
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F617" t="inlineStr"/>

--- a/players.xlsx
+++ b/players.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H617"/>
+  <dimension ref="A1:H658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,11 +490,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -524,11 +524,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -558,11 +558,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -596,7 +596,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -626,11 +626,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -702,11 +702,11 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -740,7 +740,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -842,11 +842,11 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -880,7 +880,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -952,7 +952,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -986,11 +986,11 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1020,11 +1020,11 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1054,11 +1054,11 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1092,11 +1092,11 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>544</v>
+        <v>574</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Untitled FC</t>
+          <t>Kloppenheimer FC</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1202,11 +1202,11 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1270,11 +1270,11 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1304,11 +1304,11 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1338,11 +1338,11 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1410,11 +1410,11 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1444,17 +1444,17 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1482,12 +1482,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mbappe to Brighton</t>
+          <t>AFC Richmond</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1550,11 +1550,11 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1588,11 +1588,11 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -1622,11 +1622,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -1724,11 +1724,11 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1762,11 +1762,11 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -1830,11 +1830,11 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -1864,11 +1864,11 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -1898,11 +1898,11 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -1932,11 +1932,11 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2000,11 +2000,11 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2034,11 +2034,11 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>548</v>
+        <v>578</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -2068,11 +2068,11 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -2102,11 +2102,11 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -2136,11 +2136,11 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -2170,11 +2170,11 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -2242,11 +2242,11 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Injury</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2280,11 +2280,11 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -2314,11 +2314,11 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -2348,11 +2348,11 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -2416,11 +2416,11 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -2450,11 +2450,11 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>549</v>
+        <v>579</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -2518,11 +2518,11 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -2556,12 +2556,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mbappe to Brighton</t>
+          <t>AFC Richmond</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2590,11 +2590,11 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -2624,11 +2624,11 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -2692,11 +2692,11 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -2726,11 +2726,11 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -2760,11 +2760,11 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Injury</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -2794,11 +2794,11 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -2828,11 +2828,11 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -2862,11 +2862,11 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -2896,11 +2896,11 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -2930,11 +2930,11 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -2964,11 +2964,11 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -2998,11 +2998,11 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -3032,11 +3032,11 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -3066,11 +3066,11 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -3100,11 +3100,11 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -3134,11 +3134,11 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -3168,11 +3168,11 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -3202,11 +3202,11 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -3236,11 +3236,11 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -3270,11 +3270,11 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -3304,11 +3304,11 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -3338,11 +3338,11 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -3372,11 +3372,11 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -3478,11 +3478,11 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -3512,11 +3512,11 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -3546,11 +3546,11 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -3580,11 +3580,11 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -3614,11 +3614,11 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -3648,11 +3648,11 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -3682,11 +3682,11 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -3716,11 +3716,11 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -3750,11 +3750,11 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -3784,11 +3784,11 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -3818,11 +3818,11 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>553</v>
+        <v>583</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -3852,11 +3852,11 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -3886,11 +3886,11 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -3920,11 +3920,11 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -3954,14 +3954,18 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>AFC Richmond</t>
+        </is>
+      </c>
       <c r="G102" t="inlineStr">
         <is>
           <t>Brentford</t>
@@ -3988,11 +3992,11 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -4022,11 +4026,11 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -4056,11 +4060,11 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -4094,7 +4098,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
@@ -4128,7 +4132,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -4158,11 +4162,11 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -4196,7 +4200,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4230,11 +4234,11 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4272,7 +4276,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -4302,11 +4306,11 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Injury</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -4336,11 +4340,11 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
@@ -4370,11 +4374,11 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4408,11 +4412,11 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -4446,7 +4450,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -4476,11 +4480,11 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>555</v>
+        <v>585</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -4514,7 +4518,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>Suspended</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4548,11 +4552,11 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -4586,12 +4590,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Untitled FC</t>
+          <t>Kloppenheimer FC</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4620,11 +4624,11 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
@@ -4654,11 +4658,11 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
@@ -4688,11 +4692,11 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
@@ -4722,11 +4726,11 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
@@ -4756,11 +4760,11 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
@@ -4790,11 +4794,11 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
@@ -4824,11 +4828,11 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
@@ -4858,11 +4862,11 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
@@ -4892,11 +4896,11 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -4926,11 +4930,11 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4968,7 +4972,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
@@ -4998,16 +5002,16 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Mbappe to Brighton</t>
+          <t>AFC Richmond</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5040,7 +5044,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5074,11 +5078,11 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
@@ -5112,7 +5116,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5150,12 +5154,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Untitled FC</t>
+          <t>Kloppenheimer FC</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5184,11 +5188,11 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -5218,11 +5222,11 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
@@ -5252,11 +5256,11 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Injury</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
@@ -5286,11 +5290,11 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
@@ -5324,7 +5328,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5358,11 +5362,11 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -5392,11 +5396,11 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
@@ -5430,7 +5434,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5464,11 +5468,11 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
@@ -5498,14 +5502,18 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr"/>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>AFC Richmond</t>
+        </is>
+      </c>
       <c r="G146" t="inlineStr">
         <is>
           <t>Chelsea</t>
@@ -5532,11 +5540,11 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
@@ -5566,11 +5574,11 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>558</v>
+        <v>588</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
@@ -5600,16 +5608,16 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Untitled FC</t>
+          <t>Kloppenheimer FC</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5642,7 +5650,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
@@ -5672,11 +5680,11 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -5706,11 +5714,11 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -5740,11 +5748,11 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -5774,11 +5782,11 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Injury</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -5812,7 +5820,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5846,11 +5854,11 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -5880,11 +5888,11 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -5914,11 +5922,11 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -5948,11 +5956,11 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -5986,7 +5994,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -6016,11 +6024,11 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -6050,11 +6058,11 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -6084,11 +6092,11 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -6118,11 +6126,11 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -6152,11 +6160,11 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
@@ -6186,11 +6194,11 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
@@ -6220,11 +6228,11 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -6254,11 +6262,11 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -6288,11 +6296,11 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -6322,11 +6330,11 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>563</v>
+        <v>593</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
@@ -6356,11 +6364,11 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -6390,11 +6398,11 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>564</v>
+        <v>594</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -6424,11 +6432,11 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -6458,11 +6466,11 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -6492,11 +6500,11 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -6526,11 +6534,11 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -6560,11 +6568,11 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -6598,7 +6606,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -6628,11 +6636,11 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -6662,11 +6670,11 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -6696,11 +6704,11 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -6730,11 +6738,11 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -6764,11 +6772,11 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -6802,7 +6810,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -6832,11 +6840,11 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Suspended</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -6866,11 +6874,11 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -6900,11 +6908,11 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -6934,11 +6942,11 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -6976,7 +6984,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -7006,11 +7014,11 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -7040,11 +7048,11 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -7074,11 +7082,11 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -7108,11 +7116,11 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -7142,11 +7150,11 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -7176,11 +7184,11 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -7214,12 +7222,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Untitled FC</t>
+          <t>Kloppenheimer FC</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7248,11 +7256,11 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -7282,16 +7290,16 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Untitled FC</t>
+          <t>Kloppenheimer FC</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7320,11 +7328,11 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F199" t="inlineStr"/>
@@ -7354,11 +7362,11 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -7388,11 +7396,11 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
@@ -7422,11 +7430,11 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
@@ -7460,7 +7468,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -7490,11 +7498,11 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -7524,11 +7532,11 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
@@ -7558,11 +7566,11 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -7596,7 +7604,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -7634,7 +7642,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -7668,7 +7676,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Injury</t>
         </is>
       </c>
       <c r="F209" t="inlineStr"/>
@@ -7702,7 +7710,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -7740,12 +7748,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Untitled FC</t>
+          <t>Kloppenheimer FC</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -7778,12 +7786,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Mbappe to Brighton</t>
+          <t>AFC Richmond</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -7816,14 +7824,10 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Misery Loves Kompany</t>
-        </is>
-      </c>
+          <t>Bad Injury</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr">
         <is>
           <t>Chelsea</t>
@@ -7854,7 +7858,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -7884,11 +7888,11 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -7918,11 +7922,11 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>573</v>
+        <v>603</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
@@ -7956,7 +7960,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -7990,16 +7994,16 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Mbappe to Brighton</t>
+          <t>AFC Richmond</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8032,7 +8036,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -8062,11 +8066,11 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
@@ -8096,11 +8100,11 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F221" t="inlineStr"/>
@@ -8134,7 +8138,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
@@ -8164,11 +8168,11 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
@@ -8198,11 +8202,11 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -8232,11 +8236,11 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -8270,7 +8274,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F226" t="inlineStr"/>
@@ -8304,7 +8308,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -8338,11 +8342,11 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -8372,11 +8376,11 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -8406,11 +8410,11 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -8440,11 +8444,11 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F231" t="inlineStr"/>
@@ -8474,11 +8478,11 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F232" t="inlineStr"/>
@@ -8508,11 +8512,11 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F233" t="inlineStr"/>
@@ -8542,11 +8546,11 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>574</v>
+        <v>604</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F234" t="inlineStr"/>
@@ -8576,11 +8580,11 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F235" t="inlineStr"/>
@@ -8610,11 +8614,11 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
@@ -8648,7 +8652,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F237" t="inlineStr"/>
@@ -8678,11 +8682,11 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -8712,11 +8716,11 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
@@ -8746,11 +8750,11 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
@@ -8780,11 +8784,11 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -8814,11 +8818,11 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F242" t="inlineStr"/>
@@ -8848,11 +8852,11 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F243" t="inlineStr"/>
@@ -8882,11 +8886,11 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F244" t="inlineStr"/>
@@ -8916,11 +8920,11 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
@@ -8950,11 +8954,11 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F246" t="inlineStr"/>
@@ -8988,14 +8992,10 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Mbappe to Brighton</t>
-        </is>
-      </c>
+          <t>Injury</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr">
         <is>
           <t>Everton</t>
@@ -9022,11 +9022,11 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
@@ -9056,11 +9056,11 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -9124,11 +9124,11 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -9158,11 +9158,11 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -9192,11 +9192,11 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F253" t="inlineStr"/>
@@ -9230,7 +9230,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F254" t="inlineStr"/>
@@ -9260,11 +9260,11 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
@@ -9294,11 +9294,11 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -9332,7 +9332,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
@@ -9362,11 +9362,11 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
@@ -9396,11 +9396,11 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -9464,11 +9464,11 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -9498,11 +9498,11 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
@@ -9532,11 +9532,11 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -9566,11 +9566,11 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -9604,11 +9604,11 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F265" t="inlineStr"/>
@@ -9638,11 +9638,11 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -9676,11 +9676,11 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>577</v>
+        <v>607</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F267" t="inlineStr"/>
@@ -9714,7 +9714,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F268" t="inlineStr"/>
@@ -9744,11 +9744,11 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
@@ -9778,11 +9778,11 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F270" t="inlineStr"/>
@@ -9816,7 +9816,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F271" t="inlineStr"/>
@@ -9846,11 +9846,11 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
@@ -9880,11 +9880,11 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F273" t="inlineStr"/>
@@ -9914,11 +9914,11 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
@@ -9948,11 +9948,11 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F275" t="inlineStr"/>
@@ -9982,11 +9982,11 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -10020,11 +10020,11 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F277" t="inlineStr"/>
@@ -10054,11 +10054,11 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F278" t="inlineStr"/>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -10126,11 +10126,11 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F280" t="inlineStr"/>
@@ -10160,11 +10160,11 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F281" t="inlineStr"/>
@@ -10194,18 +10194,14 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>Mbappe to Brighton</t>
-        </is>
-      </c>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr"/>
       <c r="G282" t="inlineStr">
         <is>
           <t>Fulham</t>
@@ -10232,11 +10228,11 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -10266,11 +10262,11 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F284" t="inlineStr"/>
@@ -10300,11 +10296,11 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
@@ -10334,11 +10330,11 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F286" t="inlineStr"/>
@@ -10368,11 +10364,11 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F287" t="inlineStr"/>
@@ -10402,11 +10398,11 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F288" t="inlineStr"/>
@@ -10440,7 +10436,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F289" t="inlineStr"/>
@@ -10470,11 +10466,11 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>579</v>
+        <v>609</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F290" t="inlineStr"/>
@@ -10508,7 +10504,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -10546,7 +10542,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -10580,11 +10576,11 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F293" t="inlineStr"/>
@@ -10618,7 +10614,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -10656,7 +10652,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -10690,11 +10686,11 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F296" t="inlineStr"/>
@@ -10724,11 +10720,11 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F297" t="inlineStr"/>
@@ -10762,7 +10758,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -10796,11 +10792,11 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -10834,11 +10830,11 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F300" t="inlineStr"/>
@@ -10868,11 +10864,11 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F301" t="inlineStr"/>
@@ -10902,11 +10898,11 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>541</v>
+        <v>571</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F302" t="inlineStr"/>
@@ -10936,11 +10932,11 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -10978,12 +10974,12 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Mbappe to Brighton</t>
+          <t>AFC Richmond</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -11016,12 +11012,12 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Mbappe to Brighton</t>
+          <t>AFC Richmond</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -11050,11 +11046,11 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F306" t="inlineStr"/>
@@ -11084,11 +11080,11 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>539</v>
+        <v>569</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F307" t="inlineStr"/>
@@ -11122,7 +11118,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -11160,7 +11156,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -11198,7 +11194,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -11232,11 +11228,11 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F311" t="inlineStr"/>
@@ -11266,11 +11262,11 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F312" t="inlineStr"/>
@@ -11300,11 +11296,11 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F313" t="inlineStr"/>
@@ -11338,7 +11334,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -11372,11 +11368,11 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F315" t="inlineStr"/>
@@ -11406,11 +11402,11 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>581</v>
+        <v>611</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F316" t="inlineStr"/>
@@ -11440,11 +11436,11 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>582</v>
+        <v>612</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F317" t="inlineStr"/>
@@ -11474,11 +11470,11 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F318" t="inlineStr"/>
@@ -11508,11 +11504,11 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F319" t="inlineStr"/>
@@ -11542,11 +11538,11 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F320" t="inlineStr"/>
@@ -11576,11 +11572,11 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F321" t="inlineStr"/>
@@ -11610,11 +11606,11 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F322" t="inlineStr"/>
@@ -11644,11 +11640,11 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F323" t="inlineStr"/>
@@ -11678,11 +11674,11 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F324" t="inlineStr"/>
@@ -11712,11 +11708,11 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F325" t="inlineStr"/>
@@ -11746,11 +11742,11 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F326" t="inlineStr"/>
@@ -11784,7 +11780,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F327" t="inlineStr"/>
@@ -11814,11 +11810,11 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F328" t="inlineStr"/>
@@ -11848,11 +11844,11 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F329" t="inlineStr"/>
@@ -11882,11 +11878,11 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F330" t="inlineStr"/>
@@ -11916,11 +11912,11 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F331" t="inlineStr"/>
@@ -11950,11 +11946,11 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F332" t="inlineStr"/>
@@ -11984,11 +11980,11 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F333" t="inlineStr"/>
@@ -12018,11 +12014,11 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F334" t="inlineStr"/>
@@ -12052,11 +12048,11 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F335" t="inlineStr"/>
@@ -12086,11 +12082,11 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F336" t="inlineStr"/>
@@ -12120,11 +12116,11 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F337" t="inlineStr"/>
@@ -12154,11 +12150,11 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F338" t="inlineStr"/>
@@ -12188,11 +12184,11 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>586</v>
+        <v>616</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F339" t="inlineStr"/>
@@ -12222,11 +12218,11 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F340" t="inlineStr"/>
@@ -12256,11 +12252,11 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F341" t="inlineStr"/>
@@ -12290,11 +12286,11 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -12328,11 +12324,11 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -12370,12 +12366,12 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Untitled FC</t>
+          <t>Kloppenheimer FC</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -12408,12 +12404,12 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Untitled FC</t>
+          <t>Kloppenheimer FC</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -12442,11 +12438,11 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F346" t="inlineStr"/>
@@ -12480,7 +12476,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F347" t="inlineStr"/>
@@ -12510,11 +12506,11 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>587</v>
+        <v>617</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F348" t="inlineStr"/>
@@ -12544,11 +12540,11 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F349" t="inlineStr"/>
@@ -12582,7 +12578,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Injury</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -12620,7 +12616,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -12654,11 +12650,11 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F352" t="inlineStr"/>
@@ -12692,7 +12688,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -12730,12 +12726,12 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Untitled FC</t>
+          <t>Kloppenheimer FC</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -12768,7 +12764,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -12806,7 +12802,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -12840,11 +12836,11 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F357" t="inlineStr"/>
@@ -12874,11 +12870,11 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F358" t="inlineStr"/>
@@ -12908,11 +12904,11 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F359" t="inlineStr"/>
@@ -12946,7 +12942,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F360" t="inlineStr"/>
@@ -12976,11 +12972,11 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F361" t="inlineStr"/>
@@ -13010,11 +13006,11 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F362" t="inlineStr"/>
@@ -13044,11 +13040,11 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F363" t="inlineStr"/>
@@ -13078,11 +13074,11 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F364" t="inlineStr"/>
@@ -13112,11 +13108,11 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F365" t="inlineStr"/>
@@ -13150,7 +13146,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -13184,11 +13180,11 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F367" t="inlineStr"/>
@@ -13218,11 +13214,11 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F368" t="inlineStr"/>
@@ -13256,12 +13252,12 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Injury</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Mbappe to Brighton</t>
+          <t>AFC Richmond</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -13290,11 +13286,11 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -13328,11 +13324,11 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F371" t="inlineStr"/>
@@ -13362,11 +13358,11 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F372" t="inlineStr"/>
@@ -13400,12 +13396,12 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Mbappe to Brighton</t>
+          <t>AFC Richmond</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -13438,12 +13434,12 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Mbappe to Brighton</t>
+          <t>AFC Richmond</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -13472,11 +13468,11 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>589</v>
+        <v>619</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F375" t="inlineStr"/>
@@ -13506,11 +13502,11 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F376" t="inlineStr"/>
@@ -13544,7 +13540,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F377" t="inlineStr"/>
@@ -13574,11 +13570,11 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -13612,11 +13608,11 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F379" t="inlineStr"/>
@@ -13650,7 +13646,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F380" t="inlineStr"/>
@@ -13680,11 +13676,11 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>591</v>
+        <v>621</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F381" t="inlineStr"/>
@@ -13714,11 +13710,11 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F382" t="inlineStr"/>
@@ -13748,11 +13744,11 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F383" t="inlineStr"/>
@@ -13782,11 +13778,11 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F384" t="inlineStr"/>
@@ -13816,11 +13812,11 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>592</v>
+        <v>622</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F385" t="inlineStr"/>
@@ -13850,11 +13846,11 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F386" t="inlineStr"/>
@@ -13884,11 +13880,11 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F387" t="inlineStr"/>
@@ -13918,11 +13914,11 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F388" t="inlineStr"/>
@@ -13952,11 +13948,11 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F389" t="inlineStr"/>
@@ -13986,11 +13982,11 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F390" t="inlineStr"/>
@@ -14024,7 +14020,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Injury</t>
         </is>
       </c>
       <c r="F391" t="inlineStr"/>
@@ -14054,11 +14050,11 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -14092,11 +14088,11 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F393" t="inlineStr"/>
@@ -14126,11 +14122,11 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F394" t="inlineStr"/>
@@ -14160,11 +14156,11 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F395" t="inlineStr"/>
@@ -14194,11 +14190,11 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -14236,12 +14232,12 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Untitled FC</t>
+          <t>Kloppenheimer FC</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -14274,7 +14270,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F398" t="inlineStr"/>
@@ -14308,12 +14304,12 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Untitled FC</t>
+          <t>Kloppenheimer FC</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -14342,11 +14338,11 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F400" t="inlineStr"/>
@@ -14376,11 +14372,11 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F401" t="inlineStr"/>
@@ -14410,11 +14406,11 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F402" t="inlineStr"/>
@@ -14448,7 +14444,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -14482,11 +14478,11 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F404" t="inlineStr"/>
@@ -14516,11 +14512,11 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>594</v>
+        <v>624</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F405" t="inlineStr"/>
@@ -14550,11 +14546,11 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -14592,7 +14588,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -14626,11 +14622,11 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -14664,11 +14660,11 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F409" t="inlineStr"/>
@@ -14698,11 +14694,11 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F410" t="inlineStr"/>
@@ -14732,11 +14728,11 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F411" t="inlineStr"/>
@@ -14766,11 +14762,11 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>596</v>
+        <v>626</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F412" t="inlineStr"/>
@@ -14804,7 +14800,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F413" t="inlineStr"/>
@@ -14834,11 +14830,11 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F414" t="inlineStr"/>
@@ -14868,11 +14864,11 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F415" t="inlineStr"/>
@@ -14906,7 +14902,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -14944,7 +14940,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -14978,11 +14974,11 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F418" t="inlineStr"/>
@@ -15012,11 +15008,11 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F419" t="inlineStr"/>
@@ -15046,11 +15042,11 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F420" t="inlineStr"/>
@@ -15080,11 +15076,11 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>542</v>
+        <v>572</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F421" t="inlineStr"/>
@@ -15114,11 +15110,11 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F422" t="inlineStr"/>
@@ -15148,11 +15144,11 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F423" t="inlineStr"/>
@@ -15182,11 +15178,11 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F424" t="inlineStr"/>
@@ -15220,7 +15216,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -15254,11 +15250,11 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F426" t="inlineStr"/>
@@ -15292,7 +15288,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F427" t="inlineStr"/>
@@ -15322,11 +15318,11 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -15360,11 +15356,11 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F429" t="inlineStr"/>
@@ -15398,7 +15394,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F430" t="inlineStr"/>
@@ -15432,7 +15428,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -15466,11 +15462,11 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>597</v>
+        <v>627</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F432" t="inlineStr"/>
@@ -15504,7 +15500,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F433" t="inlineStr"/>
@@ -15538,7 +15534,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
@@ -15572,11 +15568,11 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F435" t="inlineStr"/>
@@ -15606,11 +15602,11 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F436" t="inlineStr"/>
@@ -15640,11 +15636,11 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F437" t="inlineStr"/>
@@ -15678,7 +15674,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -15712,11 +15708,11 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>543</v>
+        <v>573</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F439" t="inlineStr"/>
@@ -15746,11 +15742,11 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F440" t="inlineStr"/>
@@ -15780,11 +15776,11 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F441" t="inlineStr"/>
@@ -15814,11 +15810,11 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F442" t="inlineStr"/>
@@ -15852,7 +15848,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F443" t="inlineStr"/>
@@ -15882,11 +15878,11 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F444" t="inlineStr"/>
@@ -15916,11 +15912,11 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F445" t="inlineStr"/>
@@ -15950,11 +15946,11 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F446" t="inlineStr"/>
@@ -15984,11 +15980,11 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F447" t="inlineStr"/>
@@ -16022,7 +16018,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -16056,11 +16052,11 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F449" t="inlineStr"/>
@@ -16090,11 +16086,11 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F450" t="inlineStr"/>
@@ -16128,7 +16124,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F451" t="inlineStr"/>
@@ -16158,11 +16154,11 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F452" t="inlineStr"/>
@@ -16192,11 +16188,11 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
@@ -16226,11 +16222,11 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F454" t="inlineStr"/>
@@ -16260,11 +16256,11 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
@@ -16294,11 +16290,11 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
@@ -16328,11 +16324,11 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
@@ -16362,11 +16358,11 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
@@ -16396,11 +16392,11 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
@@ -16430,11 +16426,11 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
@@ -16464,11 +16460,11 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
@@ -16498,11 +16494,11 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F462" t="inlineStr"/>
@@ -16532,11 +16528,11 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F463" t="inlineStr"/>
@@ -16566,11 +16562,11 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F464" t="inlineStr"/>
@@ -16600,11 +16596,11 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F465" t="inlineStr"/>
@@ -16634,11 +16630,11 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F466" t="inlineStr"/>
@@ -16668,11 +16664,11 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F467" t="inlineStr"/>
@@ -16702,11 +16698,11 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F468" t="inlineStr"/>
@@ -16736,11 +16732,11 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F469" t="inlineStr"/>
@@ -16770,11 +16766,11 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F470" t="inlineStr"/>
@@ -16804,11 +16800,11 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
@@ -16838,11 +16834,11 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
@@ -16872,11 +16868,11 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F473" t="inlineStr"/>
@@ -16906,11 +16902,11 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>602</v>
+        <v>632</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F474" t="inlineStr"/>
@@ -16940,11 +16936,11 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>603</v>
+        <v>635</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
@@ -16974,17 +16970,17 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="H476" t="inlineStr">
@@ -17008,11 +17004,11 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Injury</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
@@ -17042,11 +17038,11 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Injury</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
@@ -17076,11 +17072,11 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Injury</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
@@ -17110,11 +17106,11 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>604</v>
+        <v>637</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
@@ -17144,11 +17140,11 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
@@ -17178,11 +17174,11 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Injury</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
@@ -17212,11 +17208,11 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
@@ -17246,11 +17242,11 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Injury</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
@@ -17280,11 +17276,11 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
@@ -17318,7 +17314,7 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Injury</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
@@ -17352,7 +17348,7 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
@@ -17382,11 +17378,11 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>605</v>
+        <v>638</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Injury</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
@@ -17416,11 +17412,11 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F489" t="inlineStr"/>
@@ -17450,11 +17446,11 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F490" t="inlineStr"/>
@@ -17484,11 +17480,11 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F491" t="inlineStr"/>
@@ -17518,11 +17514,11 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>606</v>
+        <v>639</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F492" t="inlineStr"/>
@@ -17556,7 +17552,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F493" t="inlineStr"/>
@@ -17586,11 +17582,11 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F494" t="inlineStr"/>
@@ -17620,11 +17616,11 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
@@ -17654,11 +17650,11 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F496" t="inlineStr"/>
@@ -17688,11 +17684,11 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
@@ -17722,11 +17718,11 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
@@ -17760,11 +17756,11 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
@@ -17798,7 +17794,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
@@ -17836,7 +17832,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -17874,7 +17870,7 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
@@ -17908,18 +17904,14 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="F503" t="inlineStr">
-        <is>
-          <t>Mbappe to Brighton</t>
-        </is>
-      </c>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr">
         <is>
           <t>Spurs</t>
@@ -17946,11 +17938,11 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
@@ -17984,7 +17976,7 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
@@ -18018,11 +18010,11 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
@@ -18052,11 +18044,11 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
@@ -18090,11 +18082,11 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
@@ -18128,11 +18120,11 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
@@ -18166,12 +18158,12 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>Untitled FC</t>
+          <t>Kloppenheimer FC</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
@@ -18200,11 +18192,11 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
@@ -18234,16 +18226,16 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>Untitled FC</t>
+          <t>Kloppenheimer FC</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
@@ -18272,11 +18264,11 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
@@ -18306,11 +18298,11 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
@@ -18340,11 +18332,11 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F515" t="inlineStr"/>
@@ -18374,11 +18366,11 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F516" t="inlineStr"/>
@@ -18412,7 +18404,7 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
@@ -18446,11 +18438,11 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>536</v>
+        <v>566</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F518" t="inlineStr"/>
@@ -18480,11 +18472,11 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F519" t="inlineStr"/>
@@ -18514,11 +18506,11 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
@@ -18552,18 +18544,14 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="F521" t="inlineStr">
-        <is>
-          <t>Mbappe to Brighton</t>
-        </is>
-      </c>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr">
         <is>
           <t>Spurs</t>
@@ -18590,11 +18578,11 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>608</v>
+        <v>641</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F522" t="inlineStr"/>
@@ -18624,11 +18612,11 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F523" t="inlineStr"/>
@@ -18662,7 +18650,7 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
@@ -18696,11 +18684,11 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F525" t="inlineStr"/>
@@ -18734,7 +18722,7 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F526" t="inlineStr"/>
@@ -18768,12 +18756,12 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>Mbappe to Brighton</t>
+          <t>AFC Richmond</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
@@ -18806,7 +18794,7 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F528" t="inlineStr"/>
@@ -18836,11 +18824,11 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F529" t="inlineStr"/>
@@ -18870,11 +18858,11 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F530" t="inlineStr"/>
@@ -18904,11 +18892,11 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F531" t="inlineStr"/>
@@ -18938,11 +18926,11 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F532" t="inlineStr"/>
@@ -18972,11 +18960,11 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F533" t="inlineStr"/>
@@ -19006,11 +18994,11 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
@@ -19044,11 +19032,11 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F535" t="inlineStr"/>
@@ -19082,7 +19070,7 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
@@ -19116,11 +19104,11 @@
         </is>
       </c>
       <c r="D537" t="n">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F537" t="inlineStr"/>
@@ -19150,11 +19138,11 @@
         </is>
       </c>
       <c r="D538" t="n">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F538" t="inlineStr"/>
@@ -19184,11 +19172,11 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F539" t="inlineStr"/>
@@ -19222,7 +19210,7 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
@@ -19260,7 +19248,7 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
@@ -19298,7 +19286,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
@@ -19332,11 +19320,11 @@
         </is>
       </c>
       <c r="D543" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F543" t="inlineStr"/>
@@ -19366,11 +19354,11 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F544" t="inlineStr"/>
@@ -19400,11 +19388,11 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
@@ -19438,11 +19426,11 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F546" t="inlineStr"/>
@@ -19472,11 +19460,11 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>533</v>
+        <v>563</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F547" t="inlineStr"/>
@@ -19506,11 +19494,11 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F548" t="inlineStr"/>
@@ -19540,11 +19528,11 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F549" t="inlineStr"/>
@@ -19574,11 +19562,11 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F550" t="inlineStr"/>
@@ -19608,11 +19596,11 @@
         </is>
       </c>
       <c r="D551" t="n">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F551" t="inlineStr"/>
@@ -19642,11 +19630,11 @@
         </is>
       </c>
       <c r="D552" t="n">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F552" t="inlineStr"/>
@@ -19680,7 +19668,7 @@
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F553" t="inlineStr"/>
@@ -19710,11 +19698,11 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F554" t="inlineStr"/>
@@ -19748,7 +19736,7 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F555" t="inlineStr"/>
@@ -19778,11 +19766,11 @@
         </is>
       </c>
       <c r="D556" t="n">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F556" t="inlineStr"/>
@@ -19812,11 +19800,11 @@
         </is>
       </c>
       <c r="D557" t="n">
-        <v>610</v>
+        <v>643</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F557" t="inlineStr"/>
@@ -19850,7 +19838,7 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F558" t="inlineStr"/>
@@ -19884,7 +19872,7 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
@@ -19918,11 +19906,11 @@
         </is>
       </c>
       <c r="D560" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F560" t="inlineStr"/>
@@ -19952,11 +19940,11 @@
         </is>
       </c>
       <c r="D561" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F561" t="inlineStr"/>
@@ -19986,11 +19974,11 @@
         </is>
       </c>
       <c r="D562" t="n">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F562" t="inlineStr"/>
@@ -20020,11 +20008,11 @@
         </is>
       </c>
       <c r="D563" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F563" t="inlineStr"/>
@@ -20054,11 +20042,11 @@
         </is>
       </c>
       <c r="D564" t="n">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F564" t="inlineStr"/>
@@ -20088,11 +20076,11 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>615</v>
+        <v>655</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
@@ -20126,11 +20114,11 @@
         </is>
       </c>
       <c r="D566" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F566" t="inlineStr"/>
@@ -20160,11 +20148,11 @@
         </is>
       </c>
       <c r="D567" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F567" t="inlineStr"/>
@@ -20198,7 +20186,7 @@
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F568" t="inlineStr"/>
@@ -20232,7 +20220,7 @@
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F569" t="inlineStr"/>
@@ -20262,11 +20250,11 @@
         </is>
       </c>
       <c r="D570" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -20300,11 +20288,11 @@
         </is>
       </c>
       <c r="D571" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F571" t="inlineStr"/>
@@ -20334,11 +20322,11 @@
         </is>
       </c>
       <c r="D572" t="n">
-        <v>616</v>
+        <v>657</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F572" t="inlineStr"/>
@@ -20368,11 +20356,11 @@
         </is>
       </c>
       <c r="D573" t="n">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F573" t="inlineStr"/>
@@ -20402,11 +20390,11 @@
         </is>
       </c>
       <c r="D574" t="n">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F574" t="inlineStr"/>
@@ -20436,11 +20424,11 @@
         </is>
       </c>
       <c r="D575" t="n">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F575" t="inlineStr"/>
@@ -20470,11 +20458,11 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F576" t="inlineStr"/>
@@ -20504,11 +20492,11 @@
         </is>
       </c>
       <c r="D577" t="n">
-        <v>611</v>
+        <v>647</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F577" t="inlineStr"/>
@@ -20538,11 +20526,11 @@
         </is>
       </c>
       <c r="D578" t="n">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F578" t="inlineStr"/>
@@ -20572,11 +20560,11 @@
         </is>
       </c>
       <c r="D579" t="n">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F579" t="inlineStr"/>
@@ -20606,11 +20594,11 @@
         </is>
       </c>
       <c r="D580" t="n">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F580" t="inlineStr"/>
@@ -20640,11 +20628,11 @@
         </is>
       </c>
       <c r="D581" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F581" t="inlineStr"/>
@@ -20674,11 +20662,11 @@
         </is>
       </c>
       <c r="D582" t="n">
-        <v>614</v>
+        <v>653</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F582" t="inlineStr"/>
@@ -20708,11 +20696,11 @@
         </is>
       </c>
       <c r="D583" t="n">
-        <v>613</v>
+        <v>652</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F583" t="inlineStr"/>
@@ -20746,7 +20734,7 @@
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F584" t="inlineStr"/>
@@ -20776,11 +20764,11 @@
         </is>
       </c>
       <c r="D585" t="n">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F585" t="inlineStr"/>
@@ -20810,11 +20798,11 @@
         </is>
       </c>
       <c r="D586" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Injury</t>
         </is>
       </c>
       <c r="F586" t="inlineStr">
@@ -20848,11 +20836,11 @@
         </is>
       </c>
       <c r="D587" t="n">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F587" t="inlineStr"/>
@@ -20882,11 +20870,11 @@
         </is>
       </c>
       <c r="D588" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F588" t="inlineStr"/>
@@ -20916,11 +20904,11 @@
         </is>
       </c>
       <c r="D589" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F589" t="inlineStr"/>
@@ -20950,11 +20938,11 @@
         </is>
       </c>
       <c r="D590" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="F590" t="inlineStr"/>
@@ -20988,10 +20976,14 @@
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="F591" t="inlineStr"/>
+          <t>Injury</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>Misery Loves Kompany</t>
+        </is>
+      </c>
       <c r="G591" t="inlineStr">
         <is>
           <t>Wolves</t>
@@ -21022,7 +21014,7 @@
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F592" t="inlineStr"/>
@@ -21052,11 +21044,11 @@
         </is>
       </c>
       <c r="D593" t="n">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F593" t="inlineStr"/>
@@ -21090,7 +21082,7 @@
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F594" t="inlineStr"/>
@@ -21124,7 +21116,7 @@
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F595" t="inlineStr"/>
@@ -21154,11 +21146,11 @@
         </is>
       </c>
       <c r="D596" t="n">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F596" t="inlineStr"/>
@@ -21188,11 +21180,11 @@
         </is>
       </c>
       <c r="D597" t="n">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F597" t="inlineStr"/>
@@ -21222,16 +21214,16 @@
         </is>
       </c>
       <c r="D598" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>Untitled FC</t>
+          <t>Kloppenheimer FC</t>
         </is>
       </c>
       <c r="G598" t="inlineStr">
@@ -21260,11 +21252,11 @@
         </is>
       </c>
       <c r="D599" t="n">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F599" t="inlineStr"/>
@@ -21298,7 +21290,7 @@
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F600" t="inlineStr">
@@ -21332,11 +21324,11 @@
         </is>
       </c>
       <c r="D601" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F601" t="inlineStr"/>
@@ -21370,7 +21362,7 @@
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F602" t="inlineStr"/>
@@ -21400,11 +21392,11 @@
         </is>
       </c>
       <c r="D603" t="n">
-        <v>612</v>
+        <v>650</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F603" t="inlineStr"/>
@@ -21438,7 +21430,7 @@
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F604" t="inlineStr">
@@ -21472,11 +21464,11 @@
         </is>
       </c>
       <c r="D605" t="n">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F605" t="inlineStr"/>
@@ -21506,11 +21498,11 @@
         </is>
       </c>
       <c r="D606" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F606" t="inlineStr"/>
@@ -21540,11 +21532,11 @@
         </is>
       </c>
       <c r="D607" t="n">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F607" t="inlineStr"/>
@@ -21574,11 +21566,11 @@
         </is>
       </c>
       <c r="D608" t="n">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F608" t="inlineStr"/>
@@ -21608,11 +21600,11 @@
         </is>
       </c>
       <c r="D609" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F609" t="inlineStr"/>
@@ -21646,7 +21638,7 @@
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F610" t="inlineStr"/>
@@ -21676,11 +21668,11 @@
         </is>
       </c>
       <c r="D611" t="n">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F611" t="inlineStr"/>
@@ -21710,11 +21702,11 @@
         </is>
       </c>
       <c r="D612" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F612" t="inlineStr"/>
@@ -21744,11 +21736,11 @@
         </is>
       </c>
       <c r="D613" t="n">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F613" t="inlineStr"/>
@@ -21778,11 +21770,11 @@
         </is>
       </c>
       <c r="D614" t="n">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F614" t="inlineStr"/>
@@ -21812,11 +21804,11 @@
         </is>
       </c>
       <c r="D615" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>Bad Injury</t>
         </is>
       </c>
       <c r="F615" t="inlineStr"/>
@@ -21846,14 +21838,18 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="F616" t="inlineStr"/>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>AFC Richmond</t>
+        </is>
+      </c>
       <c r="G616" t="inlineStr">
         <is>
           <t>Man City</t>
@@ -21884,10 +21880,14 @@
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="F617" t="inlineStr"/>
+          <t>Bad Injury</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>AFC Richmond</t>
+        </is>
+      </c>
       <c r="G617" t="inlineStr">
         <is>
           <t>Man Utd</t>
@@ -21896,6 +21896,1400 @@
       <c r="H617" t="inlineStr">
         <is>
           <t>Forward</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>617</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Omari</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Kellyman</t>
+        </is>
+      </c>
+      <c r="D618" t="n">
+        <v>535</v>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr"/>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>618</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Greenwood</t>
+        </is>
+      </c>
+      <c r="D619" t="n">
+        <v>654</v>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr"/>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>619</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Michale</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Olakigbe</t>
+        </is>
+      </c>
+      <c r="D620" t="n">
+        <v>534</v>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr"/>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>620</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>Hinshelwood</t>
+        </is>
+      </c>
+      <c r="D621" t="n">
+        <v>533</v>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr"/>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>621</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Owen</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Dodgson</t>
+        </is>
+      </c>
+      <c r="D622" t="n">
+        <v>651</v>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr"/>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>622</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Mason</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Burstow</t>
+        </is>
+      </c>
+      <c r="D623" t="n">
+        <v>532</v>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr"/>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>623</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Lewis</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>Dobbin</t>
+        </is>
+      </c>
+      <c r="D624" t="n">
+        <v>531</v>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr"/>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>624</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Luc</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>De Fougerolles</t>
+        </is>
+      </c>
+      <c r="D625" t="n">
+        <v>646</v>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr"/>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>625</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Jarell</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Quansah</t>
+        </is>
+      </c>
+      <c r="D626" t="n">
+        <v>645</v>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr"/>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>626</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Bobby</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Clark</t>
+        </is>
+      </c>
+      <c r="D627" t="n">
+        <v>530</v>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr"/>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>627</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Doak</t>
+        </is>
+      </c>
+      <c r="D628" t="n">
+        <v>529</v>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr"/>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>628</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>McConnell</t>
+        </is>
+      </c>
+      <c r="D629" t="n">
+        <v>528</v>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr"/>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>629</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Ross</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Barkley</t>
+        </is>
+      </c>
+      <c r="D630" t="n">
+        <v>302</v>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr"/>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>630</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Jacob</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D631" t="n">
+        <v>301</v>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr"/>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>631</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Omari</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Forson</t>
+        </is>
+      </c>
+      <c r="D632" t="n">
+        <v>525</v>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr"/>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>632</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Tino</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>Livramento</t>
+        </is>
+      </c>
+      <c r="D633" t="n">
+        <v>524</v>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr"/>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>633</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Murphy</t>
+        </is>
+      </c>
+      <c r="D634" t="n">
+        <v>636</v>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr"/>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>634</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Lewis</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Miley</t>
+        </is>
+      </c>
+      <c r="D635" t="n">
+        <v>523</v>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr"/>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>635</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>George</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>Shelvey</t>
+        </is>
+      </c>
+      <c r="D636" t="n">
+        <v>634</v>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr"/>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>Goalkeeper</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>636</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Josh</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Powell</t>
+        </is>
+      </c>
+      <c r="D637" t="n">
+        <v>633</v>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr"/>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>637</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Vini</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>de Souza Costa</t>
+        </is>
+      </c>
+      <c r="D638" t="n">
+        <v>300</v>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr"/>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>638</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Micky</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>van de Ven</t>
+        </is>
+      </c>
+      <c r="D639" t="n">
+        <v>521</v>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr"/>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>639</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Dane</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Scarlett</t>
+        </is>
+      </c>
+      <c r="D640" t="n">
+        <v>520</v>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr"/>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>640</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Alejo</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Véliz</t>
+        </is>
+      </c>
+      <c r="D641" t="n">
+        <v>148</v>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr"/>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>641</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Edson</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Álvarez Velázquez</t>
+        </is>
+      </c>
+      <c r="D642" t="n">
+        <v>298</v>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>Bad Injury</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr"/>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>642</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Aarons</t>
+        </is>
+      </c>
+      <c r="D643" t="n">
+        <v>536</v>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr"/>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>643</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Scott</t>
+        </is>
+      </c>
+      <c r="D644" t="n">
+        <v>304</v>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>Bad Injury</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr"/>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>644</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Youssef</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>Ramalho Chermiti</t>
+        </is>
+      </c>
+      <c r="D645" t="n">
+        <v>303</v>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr"/>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>645</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>Hein</t>
+        </is>
+      </c>
+      <c r="D646" t="n">
+        <v>656</v>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr"/>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>Goalkeeper</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>646</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Jesurun</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>Rak-Sakyi</t>
+        </is>
+      </c>
+      <c r="D647" t="n">
+        <v>545</v>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr"/>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>647</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>John-Kymani</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>Gordon</t>
+        </is>
+      </c>
+      <c r="D648" t="n">
+        <v>544</v>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr"/>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>648</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>Cannon</t>
+        </is>
+      </c>
+      <c r="D649" t="n">
+        <v>543</v>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr"/>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>649</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Onyango</t>
+        </is>
+      </c>
+      <c r="D650" t="n">
+        <v>542</v>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr"/>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>650</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Jay</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>Stansfield</t>
+        </is>
+      </c>
+      <c r="D651" t="n">
+        <v>541</v>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr"/>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>651</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>Dibley-Dias</t>
+        </is>
+      </c>
+      <c r="D652" t="n">
+        <v>540</v>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr"/>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>652</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Aidan</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>Francis-Clarke</t>
+        </is>
+      </c>
+      <c r="D653" t="n">
+        <v>649</v>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr"/>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>653</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Femi</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>Seriki</t>
+        </is>
+      </c>
+      <c r="D654" t="n">
+        <v>648</v>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr"/>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>654</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Louie</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>Marsh</t>
+        </is>
+      </c>
+      <c r="D655" t="n">
+        <v>539</v>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr"/>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>655</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Andre</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>Brooks</t>
+        </is>
+      </c>
+      <c r="D656" t="n">
+        <v>538</v>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>656</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Antwoine</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>Hackford</t>
+        </is>
+      </c>
+      <c r="D657" t="n">
+        <v>537</v>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr"/>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>657</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Anang</t>
+        </is>
+      </c>
+      <c r="D658" t="n">
+        <v>644</v>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr"/>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>Goalkeeper</t>
         </is>
       </c>
     </row>
